--- a/doc/现场设计室变更三单管理台账.xlsx
+++ b/doc/现场设计室变更三单管理台账.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20413"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\02_github\oa\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43FCF9B-BFBF-47EB-B6C5-D7D06D4905E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,31 +20,33 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>康兴</author>
   </authors>
   <commentList>
-    <comment ref="U1" authorId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>康兴:处理方式细化填“/”其他处理方式填单号</t>
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>康兴:</t>
@@ -47,6 +55,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -54,13 +63,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="S13" authorId="0">
+    <comment ref="T13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>康兴:</t>
@@ -69,6 +79,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -76,13 +87,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="U22" authorId="0">
+    <comment ref="V22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>康兴:处理方式细化填“/”其他处理方式填单号</t>
@@ -94,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="77">
   <si>
     <t>序号</t>
   </si>
@@ -320,21 +332,25 @@
   </si>
   <si>
     <t>预留，页面中也要提现，不用写计算公式</t>
+  </si>
+  <si>
+    <t>处理人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +362,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -353,6 +370,7 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -360,12 +378,14 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -374,66 +394,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -444,102 +405,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,198 +452,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -780,254 +480,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
@@ -1053,7 +511,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1065,10 +523,10 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1111,62 +569,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="样式 1" xfId="49"/>
+    <cellStyle name="样式 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1424,16 +838,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AC27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1452,19 +866,19 @@
     <col min="14" max="14" width="7" customWidth="1"/>
     <col min="15" max="15" width="4.875" customWidth="1"/>
     <col min="16" max="16" width="10.625" customWidth="1"/>
-    <col min="17" max="18" width="7" customWidth="1"/>
-    <col min="19" max="19" width="31.425" customWidth="1"/>
-    <col min="20" max="20" width="9.125" customWidth="1"/>
-    <col min="21" max="21" width="35.625" customWidth="1"/>
-    <col min="22" max="22" width="10.375" customWidth="1"/>
-    <col min="23" max="23" width="10.625" customWidth="1"/>
-    <col min="24" max="24" width="4.875" customWidth="1"/>
-    <col min="25" max="25" width="7" customWidth="1"/>
-    <col min="26" max="26" width="50.625" customWidth="1"/>
-    <col min="27" max="29" width="8.625" customWidth="1"/>
+    <col min="17" max="19" width="7" customWidth="1"/>
+    <col min="20" max="20" width="31.375" customWidth="1"/>
+    <col min="21" max="21" width="9.125" customWidth="1"/>
+    <col min="22" max="22" width="35.625" customWidth="1"/>
+    <col min="23" max="23" width="10.375" customWidth="1"/>
+    <col min="24" max="24" width="10.625" customWidth="1"/>
+    <col min="25" max="25" width="4.875" customWidth="1"/>
+    <col min="26" max="26" width="7" customWidth="1"/>
+    <col min="27" max="27" width="50.625" customWidth="1"/>
+    <col min="28" max="30" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="42.75" spans="1:29">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="57">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1517,43 +931,46 @@
         <v>16</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="Y1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Z1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AC1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AD1" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:29">
+    <row r="2" spans="1:30" s="1" customFormat="1" ht="14.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1609,30 +1026,33 @@
         <v>42</v>
       </c>
       <c r="S2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="18">
+      <c r="W2" s="18">
         <v>45476</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="14"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="14"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:29">
+    <row r="3" spans="1:30" s="1" customFormat="1" ht="14.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1687,8 +1107,8 @@
       <c r="R3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>56</v>
+      <c r="S3" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>56</v>
@@ -1709,13 +1129,16 @@
         <v>56</v>
       </c>
       <c r="Z3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
-      <c r="AC3" s="14"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="14"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:29">
+    <row r="4" spans="1:30" s="1" customFormat="1" ht="14.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1771,28 +1194,31 @@
         <v>66</v>
       </c>
       <c r="S4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="19" t="s">
+      <c r="U4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="20" t="s">
+      <c r="V4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="V4" s="21">
+      <c r="W4" s="21">
         <v>45491</v>
       </c>
-      <c r="W4" s="20" t="s">
+      <c r="X4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="4"/>
+      <c r="Y4" s="22"/>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="14"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="14"/>
     </row>
-    <row r="7" ht="67.5" spans="2:29">
+    <row r="7" spans="1:30" ht="67.5">
       <c r="B7" s="8" t="s">
         <v>69</v>
       </c>
@@ -1808,9 +1234,6 @@
       <c r="N7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="S7" t="s">
-        <v>72</v>
-      </c>
       <c r="T7" t="s">
         <v>72</v>
       </c>
@@ -1830,19 +1253,22 @@
         <v>72</v>
       </c>
       <c r="Z7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA7" t="s">
         <v>73</v>
       </c>
-      <c r="AB7" s="25" t="s">
-        <v>74</v>
+      <c r="AB7" t="s">
+        <v>73</v>
       </c>
       <c r="AC7" s="25" t="s">
         <v>74</v>
       </c>
+      <c r="AD7" s="25" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="13" ht="28.5" spans="1:22">
+    <row r="13" spans="1:30" ht="42.75">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -1897,20 +1323,23 @@
       <c r="R13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="S13" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="T13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="U13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U13" s="23" t="s">
+      <c r="V13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="V13" s="24" t="s">
+      <c r="W13" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" ht="28.5" spans="1:22">
+    <row r="14" spans="1:30" ht="28.5">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -1965,14 +1394,17 @@
       <c r="R14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="S14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="14"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="14"/>
     </row>
-    <row r="17" ht="54" spans="2:22">
+    <row r="17" spans="1:28" ht="54">
       <c r="B17" s="8" t="s">
         <v>69</v>
       </c>
@@ -1988,20 +1420,20 @@
       <c r="N17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="S17" t="s">
-        <v>73</v>
-      </c>
       <c r="T17" t="s">
         <v>73</v>
       </c>
-      <c r="U17" s="25" t="s">
-        <v>74</v>
+      <c r="U17" t="s">
+        <v>73</v>
       </c>
       <c r="V17" s="25" t="s">
         <v>74</v>
       </c>
+      <c r="W17" s="25" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="22" ht="42.75" spans="1:27">
+    <row r="22" spans="1:28" ht="57">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -2056,35 +1488,38 @@
       <c r="R22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S22" s="16" t="s">
+      <c r="S22" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="T22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="T22" s="16" t="s">
+      <c r="U22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="U22" s="16" t="s">
+      <c r="V22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="V22" s="16" t="s">
+      <c r="W22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="16" t="s">
+      <c r="X22" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="X22" s="17" t="s">
+      <c r="Y22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Y22" s="17" t="s">
+      <c r="Z22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Z22" s="23" t="s">
+      <c r="AA22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AA22" s="24" t="s">
+      <c r="AB22" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:27">
+    <row r="23" spans="1:28" ht="14.25">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -2140,28 +1575,31 @@
         <v>42</v>
       </c>
       <c r="S23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="T23" s="4" t="s">
+      <c r="U23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U23" s="4" t="s">
+      <c r="V23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V23" s="18">
+      <c r="W23" s="18">
         <v>45476</v>
       </c>
-      <c r="W23" s="4" t="s">
+      <c r="X23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4" t="s">
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="14"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="14"/>
     </row>
-    <row r="24" ht="14.25" spans="1:27">
+    <row r="24" spans="1:28" ht="14.25">
       <c r="A24" s="4">
         <v>3</v>
       </c>
@@ -2217,26 +1655,29 @@
         <v>66</v>
       </c>
       <c r="S24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="T24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="T24" s="19" t="s">
+      <c r="U24" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="U24" s="20" t="s">
+      <c r="V24" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="V24" s="21">
+      <c r="W24" s="21">
         <v>45491</v>
       </c>
-      <c r="W24" s="20" t="s">
+      <c r="X24" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="4"/>
+      <c r="Y24" s="22"/>
       <c r="Z24" s="4"/>
-      <c r="AA24" s="14"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="14"/>
     </row>
-    <row r="27" ht="67.5" spans="2:27">
+    <row r="27" spans="1:28" ht="67.5">
       <c r="B27" s="8" t="s">
         <v>69</v>
       </c>
@@ -2252,36 +1693,36 @@
       <c r="N27" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="Z27" s="25" t="s">
-        <v>74</v>
-      </c>
       <c r="AA27" s="25" t="s">
         <v>74</v>
       </c>
+      <c r="AB27" s="25" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E13 E22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E13 E22" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"A,B,C,D"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1 W4 W22 W24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1 X4 X22 X24" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"设计院,施工承包商,细化引起,工程公司,业主,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1 P13 P22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1 P13 P22" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"建安承包商,设备供应商,设备供应商+设计方,设计方,工程公司,细化原因,建安承包商,设备供应商+设计方,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1 N3 N13 N14 N22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1 N3 N13:N14 N22" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"A,B,C,D,E,F,G"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1 O13 O22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1 O13 O22" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"电气,防腐,管道,焊接,工艺,结构,暖通,设备,仪控,机械,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1 S22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1 T22" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>